--- a/Day-30.03/Книга1.xlsx
+++ b/Day-30.03/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\083_\Day-30.03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DB02C5-48CD-4C76-93F8-C09F1D55D4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E72BE2A-7B20-46EE-9F5E-D48E1D805769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{6436C45F-DA59-4800-A548-FCA5FD46A735}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>сумма</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>Процент от итога</t>
+  </si>
+  <si>
+    <t>план</t>
+  </si>
+  <si>
+    <t>факт</t>
+  </si>
+  <si>
+    <t>процент от выполнения плана</t>
   </si>
 </sst>
 </file>
@@ -797,24 +806,6 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -861,13 +852,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -880,6 +864,31 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -913,8 +922,8 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
-          <cell r="A1" t="str">
-            <v>hello</v>
+          <cell r="A1">
+            <v>3000</v>
           </cell>
         </row>
       </sheetData>
@@ -935,8 +944,8 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
-          <cell r="A1">
-            <v>3000</v>
+          <cell r="A1" t="str">
+            <v>hello</v>
           </cell>
         </row>
       </sheetData>
@@ -946,14 +955,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFF8AEA5-8676-42A5-8069-2DB22634DF02}" name="Таблица1" displayName="Таблица1" ref="E6:F16" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DFF8AEA5-8676-42A5-8069-2DB22634DF02}" name="Таблица1" displayName="Таблица1" ref="E6:F16" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="E6:F16" xr:uid="{DFF8AEA5-8676-42A5-8069-2DB22634DF02}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E7:F16">
     <sortCondition ref="F6:F16"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1B49C77E-B1F9-41B6-A5B2-5DEC653CDDCB}" name="Столбец101" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{54E59C45-14E5-45D1-90EB-90EBC05C5712}" name="Столбец2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1B49C77E-B1F9-41B6-A5B2-5DEC653CDDCB}" name="Столбец101" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{54E59C45-14E5-45D1-90EB-90EBC05C5712}" name="Столбец2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1750,7 +1759,7 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <f>[2]Лист1!$A$1</f>
+        <f>[1]Лист1!$A$1</f>
         <v>3000</v>
       </c>
     </row>
@@ -1759,7 +1768,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="str">
-        <f>[1]Лист1!A1</f>
+        <f>[2]Лист1!A1</f>
         <v>hello</v>
       </c>
     </row>
@@ -1888,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C91318D4-82DA-45D9-96F5-242C67EB7B35}">
   <dimension ref="C5:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,9 +2062,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:17" ht="75" x14ac:dyDescent="0.25">
       <c r="C23" s="54" t="s">
         <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.25">
@@ -2080,5 +2098,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>